--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaPrograms\ExcelManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F341C8BD-7F6A-4D74-9801-E75C748E248D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098048B9-58B6-49F7-BC6C-E8DE37FA216B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{E751960C-2776-4EC9-8C05-F2672EE3BA27}"/>
   </bookViews>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877D1447-70E7-42D4-A531-E60C42BA649C}">
   <dimension ref="A1:AI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M9" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,8 +781,8 @@
     <col min="12" max="12" width="25.7109375" customWidth="1"/>
     <col min="13" max="13" width="24" customWidth="1"/>
     <col min="14" max="14" width="15.85546875" customWidth="1"/>
-    <col min="15" max="15" width="3.85546875" customWidth="1"/>
-    <col min="16" max="16" width="3" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="16" max="16" width="25.85546875" customWidth="1"/>
     <col min="24" max="24" width="17.7109375" customWidth="1"/>
     <col min="27" max="27" width="21.85546875" customWidth="1"/>
     <col min="28" max="28" width="31.140625" customWidth="1"/>
